--- a/resources/coffee_machine/Controller/requirements.xlsx
+++ b/resources/coffee_machine/Controller/requirements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t xml:space="preserve">SRS_ID</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">CONTROLLER_SRS_9</t>
   </si>
   <si>
-    <t xml:space="preserve">T_ready</t>
+    <t xml:space="preserve">T_full</t>
   </si>
   <si>
     <t xml:space="preserve">S_produce</t>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER_SRS_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_take</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -630,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>28</v>

--- a/resources/coffee_machine/Controller/requirements.xlsx
+++ b/resources/coffee_machine/Controller/requirements.xlsx
@@ -332,7 +332,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
